--- a/Utilities/Financials.xlsx
+++ b/Utilities/Financials.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas.Gautam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas.Gautam\Desktop\GitV2\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0FD04F-EDB2-4CE0-8CE4-C72AB20D91F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E261E-770F-4BDE-A179-C18B53DB7B9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B29212EF-DA52-46CF-908A-B6077B4AADCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B29212EF-DA52-46CF-908A-B6077B4AADCB}"/>
   </bookViews>
   <sheets>
     <sheet name="compount interest calc" sheetId="2" r:id="rId1"/>
     <sheet name="future value calc" sheetId="4" r:id="rId2"/>
+    <sheet name="Rate Calculator" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>PRINCIPAL</t>
   </si>
@@ -108,6 +109,30 @@
   </si>
   <si>
     <t>Interest after tax</t>
+  </si>
+  <si>
+    <t>CurrentValue</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>FIND PERCENTAGE</t>
+  </si>
+  <si>
+    <t>Current Value</t>
+  </si>
+  <si>
+    <t>INCREMENT</t>
+  </si>
+  <si>
+    <t>FIND CHANGE</t>
+  </si>
+  <si>
+    <t>FINAL VALUE</t>
   </si>
 </sst>
 </file>
@@ -172,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -339,36 +364,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,19 +446,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -719,7 +808,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -736,16 +825,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -766,10 +855,10 @@
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <f>ROUND(SUM(F7:F104),1)</f>
         <v>44718.6</v>
       </c>
@@ -797,10 +886,10 @@
         <f>E7+F7</f>
         <v>113132.8125</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <f>IF(J6&lt;10000,0,ROUND(0.1*J6,1))</f>
         <v>4471.8999999999996</v>
       </c>
@@ -828,10 +917,10 @@
         <f>G7+F8</f>
         <v>113765.625</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <f>ROUND(J6-J7,1)</f>
         <v>40246.699999999997</v>
       </c>
@@ -853,10 +942,10 @@
         <f>G8+F9</f>
         <v>114398.4375</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <f>SUM(J6,B6)</f>
         <v>157218.6</v>
       </c>
@@ -878,10 +967,10 @@
         <f t="shared" ref="G10:G15" si="3">G9+F10</f>
         <v>115041.9287109375</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <f>SUM(B6,J8)</f>
         <v>152746.70000000001</v>
       </c>
@@ -1911,8 +2000,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1923,131 +2012,131 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>400000</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2000</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <f>FV(IF(D7="Q",D5/4,IF(D7="S",D5/2,IF(D7="A",D5/1,D5/12))),IF(D7="Q",D6/3,IF(D7="S",D6/6,IF(D7="A",D6/12,D6))),-D8,-D4,0)</f>
         <v>452607.77429869969</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <f>D10-D4</f>
         <v>52607.774298699689</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <f>IF(D11&lt;10000,0,ROUND(0.1*D11,1))</f>
         <v>5260.8</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <f>D11-D12</f>
         <v>47346.974298699686</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <f>D10-D12</f>
         <v>447346.9742986997</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2058,4 +2147,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2ABA42-0D2D-4902-8136-031BAD146603}">
+  <dimension ref="C1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="13.1796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="I1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="38">
+        <v>504</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="I4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="34">
+        <v>50</v>
+      </c>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="38">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="34">
+        <v>822000</v>
+      </c>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="39">
+        <f>ROUND((D4*100)/D5,2)</f>
+        <v>8.4</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="I7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="36">
+        <f>(J4/100)*J5</f>
+        <v>411000</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="36">
+        <f>J7+J5</f>
+        <v>1233000</v>
+      </c>
+      <c r="K8" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>